--- a/biology/Zoologie/Cubitostrea/Cubitostrea.xlsx
+++ b/biology/Zoologie/Cubitostrea/Cubitostrea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cubitostrea est un genre fossile de mollusques bivalves de l'ordre des Ostreoida et de la famille des Ostreidae. Le genre est apparu au début du Jurassique, il y a environ 200 Ma (millions d'années).
 </t>
@@ -511,9 +523,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (9 janvier 2015)[2], le genre appartient à la sous-famille des Crassostreinae alors que pour  Paleobiology Database                   (19 octobre 2019)[3], il se situe dans la sous-famille des Ostreinae.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (9 janvier 2015), le genre appartient à la sous-famille des Crassostreinae alors que pour  Paleobiology Database                   (19 octobre 2019), il se situe dans la sous-famille des Ostreinae.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Selon World Register of Marine Species (9 janvier 2015):
 † Cubitostrea cubitus (Deshayes, 1832)
@@ -554,7 +570,7 @@
 Cubitostrea alvarezii
 Cubitostrea digitalina
 Cubitostrea dubertreti
-Cubitostrea elegans (Deshayes[4], 1832) (syn. Crassostrea (Cubitostrea) elegans, Ostrea elegans Deshayes, 1832) - Éocène de l'Égypte, de la Libye et du Royaume-Uni.
+Cubitostrea elegans (Deshayes, 1832) (syn. Crassostrea (Cubitostrea) elegans, Ostrea elegans Deshayes, 1832) - Éocène de l'Égypte, de la Libye et du Royaume-Uni.
 Cubitostrea flabellula
 Cubitostrea glucumarides
 Cubitostrea gudexi
